--- a/home/dash_apps/finished_apps/data/oil_application.xlsx
+++ b/home/dash_apps/finished_apps/data/oil_application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c43234b4367095e1/Thuy Dinh/ASHAVI/1. ASHAVI/5. TECHNOLOGY ^0 RESEARCH/Project live/A220222 Gain (Shell)/Data 2022/Oil Application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c43234b4367095e1/Thuy Dinh/ASHAVI/1. ASHAVI/5. TECHNOLOGY ^0 RESEARCH/Project live/A220222 Gain (Shell)/Data 2022/Keyword for Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90EE8CC-7F75-424A-83F3-C736737AE6A8}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09CC08B8-8D90-49A1-957A-0B94853C4EB4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1004,18 +1004,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1032,7 +1033,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" s="6" t="s">
         <v>142</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" s="6" t="s">
         <v>163</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" s="6" t="s">
         <v>143</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" s="6" t="s">
         <v>144</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" s="10" t="s">
         <v>145</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" s="6" t="s">
         <v>146</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" s="6" t="s">
         <v>147</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" s="6" t="s">
         <v>165</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" s="10" t="s">
         <v>41</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" s="6" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" s="6" t="s">
         <v>148</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" s="6" t="s">
         <v>149</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" s="6" t="s">
         <v>50</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" s="6" t="s">
         <v>52</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" s="6" t="s">
         <v>150</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" s="6" t="s">
         <v>56</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" s="6" t="s">
         <v>58</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" s="6" t="s">
         <v>60</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" s="6" t="s">
         <v>61</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" s="6" t="s">
         <v>151</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" s="6" t="s">
         <v>62</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" s="6" t="s">
         <v>152</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" s="6" t="s">
         <v>153</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" s="10" t="s">
         <v>154</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" s="6" t="s">
         <v>68</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" s="6" t="s">
         <v>69</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="29">
+    <row r="63" spans="1:4" ht="30" hidden="1">
       <c r="A63" s="6" t="s">
         <v>155</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" s="6" t="s">
         <v>71</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" s="6" t="s">
         <v>74</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" s="6" t="s">
         <v>76</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" s="6" t="s">
         <v>78</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" s="6" t="s">
         <v>80</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" s="6" t="s">
         <v>81</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" s="6" t="s">
         <v>84</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" s="6" t="s">
         <v>86</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" s="6" t="s">
         <v>87</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" s="6" t="s">
         <v>88</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" s="6" t="s">
         <v>89</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" s="6" t="s">
         <v>90</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="6" t="s">
         <v>156</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" s="6" t="s">
         <v>93</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" s="6" t="s">
         <v>95</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" s="6" t="s">
         <v>96</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" s="6" t="s">
         <v>98</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" s="6" t="s">
         <v>167</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" s="5" t="s">
         <v>169</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" s="11" t="s">
         <v>171</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" s="6" t="s">
         <v>173</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" s="4" t="s">
         <v>175</v>
       </c>
@@ -2307,7 +2308,7 @@
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" s="4" t="s">
         <v>177</v>
       </c>
@@ -2323,7 +2324,7 @@
       </c>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="4" t="s">
         <v>179</v>
       </c>
@@ -2339,7 +2340,7 @@
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="15.5">
+    <row r="89" spans="1:5" ht="15.75" hidden="1">
       <c r="A89" s="12" t="s">
         <v>184</v>
       </c>
@@ -2355,7 +2356,7 @@
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" ht="15.5">
+    <row r="90" spans="1:5" ht="15.75" hidden="1">
       <c r="A90" s="7" t="s">
         <v>182</v>
       </c>
@@ -2390,7 +2391,13 @@
       <c r="E93" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D90" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}"/>
+  <autoFilter ref="A1:D90" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="COOLANT FLUID"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/home/dash_apps/finished_apps/data/oil_application.xlsx
+++ b/home/dash_apps/finished_apps/data/oil_application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c43234b4367095e1/Thuy Dinh/ASHAVI/1. ASHAVI/5. TECHNOLOGY ^0 RESEARCH/Project live/A220222 Gain (Shell)/Data 2022/Keyword for Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09CC08B8-8D90-49A1-957A-0B94853C4EB4}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10F51247-EB25-496C-BBBA-EDE0C400AC7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -598,7 +598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,12 +620,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Docs-Calibri"/>
@@ -636,6 +630,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -658,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -666,29 +679,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,18 +1016,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1034,7 +1041,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1048,7 +1055,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1058,12 +1065,12 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f>D2+1</f>
+        <f t="shared" ref="D3:D34" si="0">D2+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1073,12 +1080,12 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="0">D3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1093,7 +1100,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1108,7 +1115,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1123,7 +1130,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1138,7 +1145,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1153,7 +1160,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1168,7 +1175,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1183,7 +1190,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1198,7 +1205,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1213,7 +1220,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1228,7 +1235,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1243,7 +1250,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1258,7 +1265,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1273,7 +1280,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1288,7 +1295,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1303,7 +1310,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1318,7 +1325,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1333,10 +1340,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1348,7 +1355,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1363,7 +1370,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1378,7 +1385,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1393,7 +1400,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1408,13 +1415,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D27">
@@ -1423,7 +1430,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1438,7 +1445,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1453,7 +1460,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1468,13 +1475,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D31">
@@ -1483,7 +1490,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1498,7 +1505,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1513,10 +1520,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1528,7 +1535,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1538,12 +1545,12 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D35:D66" si="1">D34+1</f>
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1553,12 +1560,12 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1568,12 +1575,12 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1583,12 +1590,12 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1598,12 +1605,12 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1613,12 +1620,12 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1628,12 +1635,12 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1643,12 +1650,12 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1658,12 +1665,12 @@
         <v>141</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1673,27 +1680,27 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1703,12 +1710,12 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1718,12 +1725,12 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1733,12 +1740,12 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1748,12 +1755,12 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1763,12 +1770,12 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1778,27 +1785,27 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1808,12 +1815,12 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1823,12 +1830,12 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1838,12 +1845,12 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1853,12 +1860,12 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1868,12 +1875,12 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1883,12 +1890,12 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1898,27 +1905,27 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1928,12 +1935,12 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1943,12 +1950,12 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" hidden="1">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:4" ht="28.8" hidden="1">
+      <c r="A63" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1958,12 +1965,12 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -1973,12 +1980,12 @@
         <v>73</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -1988,12 +1995,12 @@
         <v>73</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2003,12 +2010,12 @@
         <v>73</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4" hidden="1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2018,27 +2025,27 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D67:D90" si="2">D66+1</f>
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D90" si="1">D67+1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2048,12 +2055,12 @@
         <v>73</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:4" hidden="1">
+      <c r="A70" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2063,12 +2070,12 @@
         <v>73</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2078,12 +2085,12 @@
         <v>73</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2093,12 +2100,12 @@
         <v>73</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2108,12 +2115,12 @@
         <v>73</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2123,12 +2130,12 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2138,12 +2145,12 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2153,12 +2160,12 @@
         <v>73</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2168,12 +2175,12 @@
         <v>73</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:4" hidden="1">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -2183,12 +2190,12 @@
         <v>73</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2198,12 +2205,12 @@
         <v>73</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:4" hidden="1">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2213,12 +2220,12 @@
         <v>73</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:5" hidden="1">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -2228,12 +2235,12 @@
         <v>73</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5" hidden="1">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -2243,161 +2250,164 @@
         <v>73</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:5" hidden="1">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:5" hidden="1">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:5" hidden="1">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:5" hidden="1">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="4">
-        <f t="shared" si="1"/>
+      <c r="C86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" hidden="1">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="4">
-        <f t="shared" si="1"/>
+      <c r="C87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" hidden="1">
-      <c r="A88" s="4" t="s">
+      <c r="A88" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D88" s="4">
-        <f t="shared" si="1"/>
+      <c r="D88">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" hidden="1">
-      <c r="A89" s="12" t="s">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.6" hidden="1">
+      <c r="A89" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="4">
-        <f t="shared" si="1"/>
+      <c r="D89">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" hidden="1">
-      <c r="A90" s="7" t="s">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.6" hidden="1">
+      <c r="A90" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="4">
-        <f t="shared" si="1"/>
+      <c r="D90">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D90" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="COOLANT FLUID"/>
+        <filter val="DẦU TRUYỀN ĐỘNG (HỘP SỐ) TỰ ĐỘNG"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D93">
+    <sortCondition ref="A2:A93"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/home/dash_apps/finished_apps/data/oil_application.xlsx
+++ b/home/dash_apps/finished_apps/data/oil_application.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c43234b4367095e1/Thuy Dinh/ASHAVI/1. ASHAVI/5. TECHNOLOGY ^0 RESEARCH/Project live/A220222 Gain (Shell)/Data 2022/Keyword for Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3197DD1-3DAD-4979-8652-42A2F2951A20}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA3D80D-4668-473D-90C2-9900194F82B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$92</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="214">
   <si>
     <t>OIL APPLICATION (ENGLISH)</t>
   </si>
@@ -301,311 +301,392 @@
     <t>DẦU ĐỘNG CƠ CÔNG NGHIỆP</t>
   </si>
   <si>
+    <t>DẦU BÁNH RĂNG CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL GREASE</t>
+  </si>
+  <si>
+    <t>MỠ BÔI TRƠN CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL OIL (MULTIPURPOSE)</t>
+  </si>
+  <si>
+    <t>DẦU CÔNG NGHIỆP (ĐA DỤNG)</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL OIL (RUST PREVENTION)</t>
+  </si>
+  <si>
+    <t>DẦU CHỐNG GỈ</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL OIL (SOLVENT)</t>
+  </si>
+  <si>
+    <t>DẦU CÔNG NGHIỆP (SOLVENT)</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL OIL (UNSPECIFY)</t>
+  </si>
+  <si>
+    <t>DẦU CÔNG NGHIỆP (UNSPECIFY)</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL PARAFFIN</t>
+  </si>
+  <si>
+    <t>PARAFFIN CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t>INHIBITED ELECTRICAL/TRANSFORMER INSULTATING OILS</t>
+  </si>
+  <si>
+    <t>DẦU CÁCH ĐIỆN/ MÁY BIẾN ÁP ỨC CHẾ</t>
+  </si>
+  <si>
+    <t>JET ENGINE GREASE</t>
+  </si>
+  <si>
+    <t>MỠ ĐỘNG CƠ MÁY BAY</t>
+  </si>
+  <si>
+    <t>JET ENGINE OIL</t>
+  </si>
+  <si>
+    <t>DẦU ĐỘNG CƠ MÁY BAY PHẢN LỰC</t>
+  </si>
+  <si>
+    <t>JET TURBINE OIL</t>
+  </si>
+  <si>
+    <t>DẦU TURBINE PHẢN LỰC</t>
+  </si>
+  <si>
+    <t>KEROSENSE</t>
+  </si>
+  <si>
+    <t>DẦU HỎA</t>
+  </si>
+  <si>
+    <t>LITHIUM COMPLEX GREASE</t>
+  </si>
+  <si>
+    <t>MỠ BÔI TRƠN LITHIUM PHỨC HỢP</t>
+  </si>
+  <si>
+    <t>MARINE ENGINE OIL</t>
+  </si>
+  <si>
+    <t>DẦU ĐỘNG CƠ HÀNG HẢI</t>
+  </si>
+  <si>
+    <t>METAL STAMPING OIL</t>
+  </si>
+  <si>
+    <t>DẦU ĐẬP/ĐỤC/ PUNCH OIL/</t>
+  </si>
+  <si>
+    <t>METALWORKING FLUIDS</t>
+  </si>
+  <si>
+    <t>DẦU GIA CÔNG KIM LOẠI</t>
+  </si>
+  <si>
+    <t>MINERAL OIL</t>
+  </si>
+  <si>
+    <t>DẦU KHOÁNG</t>
+  </si>
+  <si>
+    <t>MOLYBDENUM GREASE</t>
+  </si>
+  <si>
+    <t>MỠ ĐEN MOLY</t>
+  </si>
+  <si>
+    <t>MOTOR OIL</t>
+  </si>
+  <si>
+    <t>DẦU ĐỘNG CƠ XE MÁY</t>
+  </si>
+  <si>
+    <t>MOULD RELEASE OIL</t>
+  </si>
+  <si>
+    <t>DẦU TÁCH KHUÔN</t>
+  </si>
+  <si>
+    <t>MULTI FUNCTIONAL TRACTOR OIL</t>
+  </si>
+  <si>
+    <t>DẦU ĐẦU KÉO ĐA NĂNG</t>
+  </si>
+  <si>
+    <t>MULTIPURPOSE LITHIUM BASE GREASE</t>
+  </si>
+  <si>
+    <t>MỠ LITHIUM ĐA DỤNG</t>
+  </si>
+  <si>
+    <t>OTHER INDUSTRIAL OIL</t>
+  </si>
+  <si>
+    <t>DẦU CÔNG NGHIỆP KHÁC</t>
+  </si>
+  <si>
+    <t>PARRAFIN OIL</t>
+  </si>
+  <si>
+    <t>DẦU PARAFIN</t>
+  </si>
+  <si>
+    <t>PETROL ENGINE OIL</t>
+  </si>
+  <si>
+    <t>DẦU BÔI TRƠN ĐỘNG CƠ XĂNG</t>
+  </si>
+  <si>
+    <t>PNEUMATIC TOOL &amp; ROCK DRILL OILS</t>
+  </si>
+  <si>
+    <t>DẦU DỤNG CỤ KHÍ NÉN &amp; MÁY KHOAN ĐÁ</t>
+  </si>
+  <si>
+    <t>POWER ENGINE OIL</t>
+  </si>
+  <si>
+    <t>DẦU MÁY PHÁT ĐIỆN</t>
+  </si>
+  <si>
+    <t>POWER ENGINE OILS</t>
+  </si>
+  <si>
+    <t>ĐỘNG CƠ PHÁT ĐIỆN</t>
+  </si>
+  <si>
+    <t>PRESSING OIL</t>
+  </si>
+  <si>
+    <t>DẦU ÉP</t>
+  </si>
+  <si>
+    <t>PROCESS OILS</t>
+  </si>
+  <si>
+    <t>DẦU ĐIỀU CHẾ (CHẾ BIẾN)</t>
+  </si>
+  <si>
+    <t>PROCESSING OIL</t>
+  </si>
+  <si>
+    <t>QUENCHING OIL</t>
+  </si>
+  <si>
+    <t>DẦU UỐN DẬP</t>
+  </si>
+  <si>
+    <t>QUICK DRYING FLUID</t>
+  </si>
+  <si>
+    <t>DẦU MÁY SẤY KHÔ NHANH</t>
+  </si>
+  <si>
+    <t>REFRIGERATION OIL - REFRIGERATOR COMPRESSOR OILS</t>
+  </si>
+  <si>
+    <t>DẦU MÁY NÉN LẠNH</t>
+  </si>
+  <si>
+    <t>ROTARY PUMP OIL</t>
+  </si>
+  <si>
+    <t>DẦU BƠM TRỤC VÍT (XOAY)</t>
+  </si>
+  <si>
+    <t>SAMPLE OIL</t>
+  </si>
+  <si>
+    <t>DẦU MẪU</t>
+  </si>
+  <si>
+    <t>SILICONE GREASE</t>
+  </si>
+  <si>
+    <t>MỠ SILICONE</t>
+  </si>
+  <si>
+    <t>SILICONE OIL</t>
+  </si>
+  <si>
+    <t>DẦU SILICONE</t>
+  </si>
+  <si>
+    <t>SLIDEWAY OIL</t>
+  </si>
+  <si>
+    <t>DẦU RÃNH TRƯỢT</t>
+  </si>
+  <si>
+    <t>SPINDLE OIL</t>
+  </si>
+  <si>
+    <t>DẦU BÔI TRƠN TRỤC CHÍNH</t>
+  </si>
+  <si>
+    <t>STAMPING OIL</t>
+  </si>
+  <si>
+    <t>DẦU DẬP</t>
+  </si>
+  <si>
+    <t>TAPPING OIL</t>
+  </si>
+  <si>
+    <t>DẦU ĐỘT/TARÔ</t>
+  </si>
+  <si>
+    <t>TURBINE &amp; CIRCULATING</t>
+  </si>
+  <si>
+    <t>DẦU BÔI TRƠN TUA BIN &amp; TUẦN HOÀN</t>
+  </si>
+  <si>
+    <t>b2b</t>
+  </si>
+  <si>
+    <t>TURBINE OIL</t>
+  </si>
+  <si>
+    <t>DẦU TURBINE</t>
+  </si>
+  <si>
+    <t>TRANSMISSION OIL</t>
+  </si>
+  <si>
+    <t>DẦU TRUYỀN ĐỘNG</t>
+  </si>
+  <si>
+    <t>UV OIL</t>
+  </si>
+  <si>
+    <t>DẦU UV</t>
+  </si>
+  <si>
+    <t>VACUUM PUMP OIL</t>
+  </si>
+  <si>
+    <t>DẦU BÔI TRƠN BƠM CHÂN KHÔNG</t>
+  </si>
+  <si>
+    <t>WHITE GREASE</t>
+  </si>
+  <si>
+    <t>MỠ TRẮNG</t>
+  </si>
+  <si>
+    <t>WHITE OIL</t>
+  </si>
+  <si>
+    <t>DẦU TRẮNG</t>
+  </si>
+  <si>
+    <t>WIRE ROPE LUBRICATOR</t>
+  </si>
+  <si>
+    <t>BỘ BÔI TRƠN DÂY CÁP</t>
+  </si>
+  <si>
+    <t>Heavy Duty Engine oil</t>
+  </si>
+  <si>
+    <t>Transmission Fluid + Auto Transmission</t>
+  </si>
+  <si>
+    <t>Hydraulic Oil</t>
+  </si>
+  <si>
+    <t>Gear Oil</t>
+  </si>
+  <si>
+    <t>Grease</t>
+  </si>
+  <si>
+    <t>Compressor</t>
+  </si>
+  <si>
+    <t>Slideway</t>
+  </si>
+  <si>
+    <t>Bearing and Cirticulating oil</t>
+  </si>
+  <si>
+    <t>Turbine oil/ Power engine oil</t>
+  </si>
+  <si>
+    <t>Power engine oil (có thể cho vào Turbine oil/ Power engine oil)</t>
+  </si>
+  <si>
+    <t>Electrial Oil (dầu cách điện)</t>
+  </si>
+  <si>
+    <t>truck diesel heavy duty = HDEO  engine oil</t>
+  </si>
+  <si>
+    <t>OIL APPLICATION BY CLIENT</t>
+  </si>
+  <si>
     <t>INDUSTRIAL GEAR OIL</t>
   </si>
   <si>
-    <t>DẦU BÁNH RĂNG CÔNG NGHIỆP</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL GREASE</t>
-  </si>
-  <si>
-    <t>MỠ BÔI TRƠN CÔNG NGHIỆP</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL OIL (MULTIPURPOSE)</t>
-  </si>
-  <si>
-    <t>DẦU CÔNG NGHIỆP (ĐA DỤNG)</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL OIL (RUST PREVENTION)</t>
-  </si>
-  <si>
-    <t>DẦU CHỐNG GỈ</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL OIL (SOLVENT)</t>
-  </si>
-  <si>
-    <t>DẦU CÔNG NGHIỆP (SOLVENT)</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL OIL (UNSPECIFY)</t>
-  </si>
-  <si>
-    <t>DẦU CÔNG NGHIỆP (UNSPECIFY)</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL PARAFFIN</t>
-  </si>
-  <si>
-    <t>PARAFFIN CÔNG NGHIỆP</t>
-  </si>
-  <si>
-    <t>INHIBITED ELECTRICAL/TRANSFORMER INSULTATING OILS</t>
-  </si>
-  <si>
-    <t>DẦU CÁCH ĐIỆN/ MÁY BIẾN ÁP ỨC CHẾ</t>
-  </si>
-  <si>
-    <t>JET ENGINE GREASE</t>
-  </si>
-  <si>
-    <t>MỠ ĐỘNG CƠ MÁY BAY</t>
-  </si>
-  <si>
-    <t>JET ENGINE OIL</t>
-  </si>
-  <si>
-    <t>DẦU ĐỘNG CƠ MÁY BAY PHẢN LỰC</t>
-  </si>
-  <si>
-    <t>JET TURBINE OIL</t>
-  </si>
-  <si>
-    <t>DẦU TURBINE PHẢN LỰC</t>
-  </si>
-  <si>
-    <t>KEROSENSE</t>
-  </si>
-  <si>
-    <t>DẦU HỎA</t>
-  </si>
-  <si>
-    <t>LITHIUM COMPLEX GREASE</t>
-  </si>
-  <si>
-    <t>MỠ BÔI TRƠN LITHIUM PHỨC HỢP</t>
-  </si>
-  <si>
-    <t>MARINE ENGINE OIL</t>
-  </si>
-  <si>
-    <t>DẦU ĐỘNG CƠ HÀNG HẢI</t>
-  </si>
-  <si>
-    <t>METAL STAMPING OIL</t>
-  </si>
-  <si>
-    <t>DẦU ĐẬP/ĐỤC/ PUNCH OIL/</t>
-  </si>
-  <si>
-    <t>METALWORKING FLUIDS</t>
-  </si>
-  <si>
-    <t>DẦU GIA CÔNG KIM LOẠI</t>
-  </si>
-  <si>
-    <t>MINERAL OIL</t>
-  </si>
-  <si>
-    <t>DẦU KHOÁNG</t>
-  </si>
-  <si>
-    <t>MOLYBDENUM GREASE</t>
-  </si>
-  <si>
-    <t>MỠ ĐEN MOLY</t>
-  </si>
-  <si>
-    <t>MOTOR OIL</t>
-  </si>
-  <si>
-    <t>DẦU ĐỘNG CƠ XE MÁY</t>
-  </si>
-  <si>
-    <t>MOULD RELEASE OIL</t>
-  </si>
-  <si>
-    <t>DẦU TÁCH KHUÔN</t>
-  </si>
-  <si>
-    <t>MULTI FUNCTIONAL TRACTOR OIL</t>
-  </si>
-  <si>
-    <t>DẦU ĐẦU KÉO ĐA NĂNG</t>
-  </si>
-  <si>
-    <t>MULTIPURPOSE LITHIUM BASE GREASE</t>
-  </si>
-  <si>
-    <t>MỠ LITHIUM ĐA DỤNG</t>
-  </si>
-  <si>
-    <t>OTHER INDUSTRIAL OIL</t>
-  </si>
-  <si>
-    <t>DẦU CÔNG NGHIỆP KHÁC</t>
-  </si>
-  <si>
-    <t>PARRAFIN OIL</t>
-  </si>
-  <si>
-    <t>DẦU PARAFIN</t>
-  </si>
-  <si>
-    <t>PETROL ENGINE OIL</t>
-  </si>
-  <si>
-    <t>DẦU BÔI TRƠN ĐỘNG CƠ XĂNG</t>
-  </si>
-  <si>
-    <t>PNEUMATIC TOOL &amp; ROCK DRILL OILS</t>
-  </si>
-  <si>
-    <t>DẦU DỤNG CỤ KHÍ NÉN &amp; MÁY KHOAN ĐÁ</t>
-  </si>
-  <si>
-    <t>POWER ENGINE OIL</t>
-  </si>
-  <si>
-    <t>DẦU MÁY PHÁT ĐIỆN</t>
-  </si>
-  <si>
-    <t>POWER ENGINE OILS</t>
-  </si>
-  <si>
-    <t>ĐỘNG CƠ PHÁT ĐIỆN</t>
-  </si>
-  <si>
-    <t>PRESSING OIL</t>
-  </si>
-  <si>
-    <t>DẦU ÉP</t>
-  </si>
-  <si>
-    <t>PROCESS OILS</t>
-  </si>
-  <si>
-    <t>DẦU ĐIỀU CHẾ (CHẾ BIẾN)</t>
-  </si>
-  <si>
-    <t>PROCESSING OIL</t>
-  </si>
-  <si>
-    <t>QUENCHING OIL</t>
-  </si>
-  <si>
-    <t>DẦU UỐN DẬP</t>
-  </si>
-  <si>
-    <t>QUICK DRYING FLUID</t>
-  </si>
-  <si>
-    <t>DẦU MÁY SẤY KHÔ NHANH</t>
-  </si>
-  <si>
-    <t>REFRIGERATION OIL - REFRIGERATOR COMPRESSOR OILS</t>
-  </si>
-  <si>
-    <t>DẦU MÁY NÉN LẠNH</t>
-  </si>
-  <si>
-    <t>ROTARY PUMP OIL</t>
-  </si>
-  <si>
-    <t>DẦU BƠM TRỤC VÍT (XOAY)</t>
-  </si>
-  <si>
-    <t>SAMPLE OIL</t>
-  </si>
-  <si>
-    <t>DẦU MẪU</t>
-  </si>
-  <si>
-    <t>SILICONE GREASE</t>
-  </si>
-  <si>
-    <t>MỠ SILICONE</t>
-  </si>
-  <si>
-    <t>SILICONE OIL</t>
-  </si>
-  <si>
-    <t>DẦU SILICONE</t>
-  </si>
-  <si>
-    <t>SLIDEWAY OIL</t>
-  </si>
-  <si>
-    <t>DẦU RÃNH TRƯỢT</t>
-  </si>
-  <si>
-    <t>SPINDLE OIL</t>
-  </si>
-  <si>
-    <t>DẦU BÔI TRƠN TRỤC CHÍNH</t>
-  </si>
-  <si>
-    <t>STAMPING OIL</t>
-  </si>
-  <si>
-    <t>DẦU DẬP</t>
-  </si>
-  <si>
-    <t>TAPPING OIL</t>
-  </si>
-  <si>
-    <t>DẦU ĐỘT/TARÔ</t>
-  </si>
-  <si>
-    <t>TURBINE &amp; CIRCULATING</t>
-  </si>
-  <si>
-    <t>DẦU BÔI TRƠN TUA BIN &amp; TUẦN HOÀN</t>
-  </si>
-  <si>
-    <t>b2b</t>
-  </si>
-  <si>
-    <t>TURBINE OIL</t>
-  </si>
-  <si>
-    <t>DẦU TURBINE</t>
-  </si>
-  <si>
-    <t>TRANSMISSION OIL</t>
-  </si>
-  <si>
-    <t>DẦU TRUYỀN ĐỘNG</t>
-  </si>
-  <si>
-    <t>UV OIL</t>
-  </si>
-  <si>
-    <t>DẦU UV</t>
-  </si>
-  <si>
-    <t>VACUUM PUMP OIL</t>
-  </si>
-  <si>
-    <t>DẦU BÔI TRƠN BƠM CHÂN KHÔNG</t>
-  </si>
-  <si>
-    <t>WHITE GREASE</t>
-  </si>
-  <si>
-    <t>MỠ TRẮNG</t>
-  </si>
-  <si>
-    <t>WHITE OIL</t>
-  </si>
-  <si>
-    <t>DẦU TRẮNG</t>
-  </si>
-  <si>
-    <t>WIRE ROPE LUBRICATOR</t>
-  </si>
-  <si>
-    <t>BỘ BÔI TRƠN DÂY CÁP</t>
+    <t>Transmission Fluid</t>
+  </si>
+  <si>
+    <t>Auto Transmission Fluid</t>
+  </si>
+  <si>
+    <t>Metalworking Fluid</t>
+  </si>
+  <si>
+    <t>Turbine oil</t>
+  </si>
+  <si>
+    <t>Electrial Oil</t>
+  </si>
+  <si>
+    <t>Process Oil</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>Base Oil</t>
+  </si>
+  <si>
+    <t>HDEO</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Compressor Oil</t>
+  </si>
+  <si>
+    <t>Power engine oil</t>
+  </si>
+  <si>
+    <t>MCO Engine Oil = Motor oil</t>
+  </si>
+  <si>
+    <t>PCMO engine oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,13 +725,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -662,10 +770,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -686,8 +795,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -701,6 +822,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,21 +1126,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1154,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" hidden="1">
+      <c r="E1" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1039,12 +1168,14 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="e">
-        <f>D1+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" hidden="1">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1054,12 +1185,14 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="e">
-        <f>D2+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" hidden="1">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1069,12 +1202,14 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="e">
-        <f>D3+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" hidden="1">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1084,12 +1219,14 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="e">
-        <f>D4+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" hidden="1">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1099,12 +1236,14 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="e">
-        <f>D5+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" hidden="1">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1114,12 +1253,17 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="e">
-        <f>D6+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" hidden="1">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1129,12 +1273,17 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="e">
-        <f>D7+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" hidden="1">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1144,12 +1293,17 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="e">
-        <f>D8+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" hidden="1">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1162,8 +1316,14 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" hidden="1">
+      <c r="E10" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1174,11 +1334,16 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <f>D10+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" hidden="1">
+      <c r="E11" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1189,11 +1354,16 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <f>D11+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" hidden="1">
+      <c r="E12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1204,11 +1374,16 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <f>D12+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" hidden="1">
+      <c r="E13" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1219,11 +1394,16 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <f>D13+1</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" hidden="1">
+      <c r="E14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1234,11 +1414,16 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <f>D14+1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" hidden="1">
+      <c r="E15" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1249,11 +1434,16 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <f>D15+1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" hidden="1">
+      <c r="E16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1264,11 +1454,16 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <f>D16+1</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" hidden="1">
+      <c r="E17" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1279,11 +1474,16 @@
         <v>13</v>
       </c>
       <c r="D18">
-        <f>D17+1</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" hidden="1">
+      <c r="E18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1294,11 +1494,16 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <f>D18+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" hidden="1">
+      <c r="E19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -1309,11 +1514,16 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <f>D19+1</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" hidden="1">
+      <c r="E20" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1324,11 +1534,16 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <f>D20+1</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" hidden="1">
+      <c r="E21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1339,11 +1554,13 @@
         <v>13</v>
       </c>
       <c r="D22">
-        <f>D21+1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" hidden="1">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1354,11 +1571,13 @@
         <v>13</v>
       </c>
       <c r="D23">
-        <f>D22+1</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" hidden="1">
+      <c r="E23" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1369,11 +1588,13 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <f>D23+1</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" hidden="1">
+      <c r="E24" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1384,11 +1605,13 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <f>D24+1</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" hidden="1">
+      <c r="E25" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1399,11 +1622,13 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <f>D25+1</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" hidden="1">
+      <c r="E26" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1414,11 +1639,13 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <f>D26+1</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" hidden="1">
+      <c r="E27" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -1429,11 +1656,13 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <f>D27+1</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" hidden="1">
+      <c r="E28" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -1444,11 +1673,13 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <f>D28+1</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" hidden="1">
+      <c r="E29" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -1459,11 +1690,13 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <f>D29+1</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1">
+      <c r="E30" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" hidden="1">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -1474,11 +1707,13 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <f>D30+1</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" hidden="1">
+      <c r="E31" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -1489,11 +1724,13 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <f>D31+1</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" hidden="1">
+      <c r="E32" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -1504,11 +1741,13 @@
         <v>13</v>
       </c>
       <c r="D33">
-        <f>D32+1</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" hidden="1">
+      <c r="E33" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -1519,11 +1758,13 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <f>D33+1</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" hidden="1">
+      <c r="E34" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -1534,11 +1775,13 @@
         <v>13</v>
       </c>
       <c r="D35">
-        <f>D34+1</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" hidden="1">
+      <c r="E35" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1549,11 +1792,13 @@
         <v>13</v>
       </c>
       <c r="D36">
-        <f>D35+1</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" hidden="1">
+      <c r="E36" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1564,11 +1809,13 @@
         <v>13</v>
       </c>
       <c r="D37">
-        <f>D36+1</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" hidden="1">
+      <c r="E37" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -1579,11 +1826,13 @@
         <v>13</v>
       </c>
       <c r="D38">
-        <f>D37+1</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" hidden="1">
+      <c r="E38" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -1594,11 +1843,13 @@
         <v>13</v>
       </c>
       <c r="D39">
-        <f>D38+1</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" hidden="1">
+      <c r="E39" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -1609,11 +1860,13 @@
         <v>13</v>
       </c>
       <c r="D40">
-        <f>D39+1</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
+      <c r="E40" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -1624,136 +1877,154 @@
         <v>13</v>
       </c>
       <c r="D41">
-        <f>D40+1</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
+      <c r="E41" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1">
+      <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42">
-        <f>D41+1</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1">
+      <c r="A44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43">
-        <f>D42+1</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44">
-        <f>D43+1</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" hidden="1">
-      <c r="A45" t="s">
+      <c r="B45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1">
+      <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45">
-        <f>D44+1</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D46">
-        <f>D45+1</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
+      <c r="E46" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D47">
-        <f>D46+1</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
+      <c r="E47" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>39</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1">
+      <c r="A49" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48">
-        <f>D47+1</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" hidden="1">
-      <c r="A49" s="7" t="s">
+      <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1">
+      <c r="A50" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49">
-        <f>D48+1</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" hidden="1">
-      <c r="A50" t="s">
+      <c r="B50" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
@@ -1761,639 +2032,719 @@
       <c r="D50">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" hidden="1">
+      <c r="E50" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>91</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
+      <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51">
-        <f>D50+1</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" hidden="1">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>92</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.6" hidden="1">
+      <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52">
-        <f>D51+1</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" hidden="1">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D53">
-        <f>D52+1</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" hidden="1">
+      <c r="E53" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>94</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1">
+      <c r="A55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54">
-        <f>D53+1</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" hidden="1">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>95</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1">
+      <c r="A56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55">
-        <f>D54+1</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" hidden="1">
-      <c r="A56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>96</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1">
+      <c r="A57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56">
-        <f>D55+1</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" hidden="1">
-      <c r="A57" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>97</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1">
+      <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57">
-        <f>D56+1</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" hidden="1">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>98</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58">
-        <f>D57+1</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" hidden="1">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59">
-        <f>D58+1</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" hidden="1">
+      <c r="E59" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D60">
-        <f>D59+1</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" hidden="1">
+      <c r="E60" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>101</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1">
+      <c r="A62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61">
-        <f>D60+1</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" hidden="1">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D62">
-        <f>D61+1</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" hidden="1">
+      <c r="E62" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>103</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1">
+      <c r="A64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63">
-        <f>D62+1</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>104</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1">
+      <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64">
-        <f>D63+1</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" hidden="1">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>105</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1">
+      <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65">
-        <f>D64+1</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" hidden="1">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D66">
-        <f>D65+1</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" hidden="1">
+      <c r="E66" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>107</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1">
+      <c r="A68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67">
-        <f>D66+1</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" hidden="1">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>108</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1">
+      <c r="A69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68">
-        <f>D67+1</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" hidden="1">
-      <c r="A69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>109</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1">
+      <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69">
-        <f>D68+1</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" hidden="1">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>110</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1">
+      <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70">
-        <f>D69+1</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" hidden="1">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>111</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1">
+      <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71">
-        <f>D70+1</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" hidden="1">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>112</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1">
+      <c r="A73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72">
-        <f>D71+1</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" hidden="1">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D73">
-        <f>D72+1</f>
         <v>113</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" hidden="1">
+      <c r="E73" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>114</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" hidden="1">
+      <c r="A75" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74">
-        <f>D73+1</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30.75" hidden="1">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>115</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1">
+      <c r="A76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <f>D74+1</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" hidden="1">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>116</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1">
+      <c r="A77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76">
-        <f>D75+1</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" hidden="1">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>117</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1">
+      <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77">
-        <f>D76+1</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" hidden="1">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>118</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1">
+      <c r="A79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78">
-        <f>D77+1</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" hidden="1">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D79">
-        <f>D78+1</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" hidden="1">
+      <c r="E79" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>120</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1">
+      <c r="A81" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80">
-        <f>D79+1</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" hidden="1">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>121</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1">
+      <c r="A82" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81">
-        <f>D80+1</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" hidden="1">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>122</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1">
+      <c r="A83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82">
-        <f>D81+1</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" hidden="1">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>123</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1">
+      <c r="A84" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83">
-        <f>D82+1</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" hidden="1">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84">
+        <v>124</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1">
+      <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D84">
-        <f>D83+1</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" hidden="1">
-      <c r="A85" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>125</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1">
+      <c r="A86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85">
-        <f>D84+1</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" hidden="1">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D86">
-        <f>D85+1</f>
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" hidden="1">
+      <c r="E86" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D87">
-        <f>D86+1</f>
         <v>127</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" hidden="1">
+      <c r="E87" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>128</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1">
+      <c r="A89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88">
-        <f>D87+1</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" hidden="1">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>129</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1">
+      <c r="A90" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89">
-        <f>D88+1</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" hidden="1">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>130</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1">
+      <c r="A91" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90">
-        <f>D89+1</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" hidden="1">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91">
-        <f>D90+1</f>
         <v>131</v>
       </c>
+      <c r="E91" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1">
+      <c r="A92" s="12"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
+  <autoFilter ref="A1:J92" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
     <filterColumn colId="1">
       <filters>
-        <filter val="DẦU BÁNH RĂNG CÔNG NGHIỆP"/>
-        <filter val="DẦU CÔNG NGHIỆP (ĐA DỤNG)"/>
-        <filter val="DẦU CÔNG NGHIỆP (SOLVENT)"/>
-        <filter val="DẦU CÔNG NGHIỆP (UNSPECIFY)"/>
-        <filter val="DẦU CÔNG NGHIỆP KHÁC"/>
-        <filter val="DẦU ĐỘNG CƠ CÔNG NGHIỆP"/>
-        <filter val="MỠ BÔI TRƠN CÔNG NGHIỆP"/>
-        <filter val="PARAFFIN CÔNG NGHIỆP"/>
+        <filter val="DẦU GỐC/ DẦU NỀN"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-      <sortCondition ref="A1:A91"/>
-    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D93">
     <sortCondition ref="A2:A93"/>

--- a/home/dash_apps/finished_apps/data/oil_application.xlsx
+++ b/home/dash_apps/finished_apps/data/oil_application.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c43234b4367095e1/Thuy Dinh/ASHAVI/1. ASHAVI/5. TECHNOLOGY ^0 RESEARCH/Project live/A220222 Gain (Shell)/Data 2022/Keyword for Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c43234b4367095e1/Thuy Dinh/ASHAVI/1. ASHAVI/5. TECHNOLOGY ^0 RESEARCH/Project live/A220222 Gain (Shell)/Keyword for Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA3D80D-4668-473D-90C2-9900194F82B5}"/>
+  <xr:revisionPtr revIDLastSave="788" documentId="13_ncr:1_{A6B5986C-09CD-468E-9F42-DE4F7021C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1582CC6-754B-4C6A-9294-031D75867FF5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4614C771-210D-4FE7-BDB1-154A0AD773C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$90</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="212">
   <si>
     <t>OIL APPLICATION (ENGLISH)</t>
   </si>
@@ -52,6 +52,9 @@
     <t>CODE</t>
   </si>
   <si>
+    <t>OIL APPLICATION BY CLIENT</t>
+  </si>
+  <si>
     <t>ADDITIVE</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>OTHER OIL</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
     <t>AEROSOL</t>
   </si>
   <si>
@@ -88,12 +94,18 @@
     <t>MỠ CHỐNG DÍNH</t>
   </si>
   <si>
+    <t>Metalworking Fluid</t>
+  </si>
+  <si>
     <t>ANTI STICKY OIL</t>
   </si>
   <si>
     <t>DẦU CHỐNG DÍNH</t>
   </si>
   <si>
+    <t>Heavy Duty Engine oil</t>
+  </si>
+  <si>
     <t>AUTOMATIC TRANSMISSION FLUIDS</t>
   </si>
   <si>
@@ -103,36 +115,63 @@
     <t>B2C</t>
   </si>
   <si>
+    <t>Auto Transmission Fluid</t>
+  </si>
+  <si>
+    <t>Transmission Fluid + Auto Transmission</t>
+  </si>
+  <si>
     <t>AVIATION FUEL</t>
   </si>
   <si>
     <t>DẦU HÀNG KHÔNG</t>
   </si>
   <si>
+    <t>Hydraulic Oil</t>
+  </si>
+  <si>
     <t>BASE OIL</t>
   </si>
   <si>
     <t>DẦU GỐC/ DẦU NỀN</t>
   </si>
   <si>
+    <t>Base Oil</t>
+  </si>
+  <si>
+    <t>Gear Oil</t>
+  </si>
+  <si>
     <t>BEARING &amp; CIRCULATING OILS</t>
   </si>
   <si>
     <t>DẦU BÔI TRƠN TUẦN HOÀN VÀ Ổ ĐỠ</t>
   </si>
   <si>
+    <t>Bearing and Cirticulating oil</t>
+  </si>
+  <si>
+    <t>Grease</t>
+  </si>
+  <si>
     <t>BRAKE FLUID</t>
   </si>
   <si>
     <t>DẦU PHANH (THẮNG)</t>
   </si>
   <si>
+    <t>Compressor</t>
+  </si>
+  <si>
     <t>CIRCULATING OIL</t>
   </si>
   <si>
     <t>DẦU TUẦN HOÀN</t>
   </si>
   <si>
+    <t>Slideway</t>
+  </si>
+  <si>
     <t>CLEANING OIL</t>
   </si>
   <si>
@@ -145,36 +184,57 @@
     <t>DẦU BÔI TRƠN MÁY NÉN KHÍ</t>
   </si>
   <si>
+    <t>Compressor Oil</t>
+  </si>
+  <si>
+    <t>Turbine oil/ Power engine oil</t>
+  </si>
+  <si>
     <t>CONVEYOR OIL</t>
   </si>
   <si>
     <t>DẦU BĂNG TẢI</t>
   </si>
   <si>
+    <t>Power engine oil (có thể cho vào Turbine oil/ Power engine oil)</t>
+  </si>
+  <si>
     <t>COOLANT FLUID</t>
   </si>
   <si>
     <t>DUNG DỊCH LÀM MÁT</t>
   </si>
   <si>
+    <t>Electrial Oil (dầu cách điện)</t>
+  </si>
+  <si>
     <t>CUTTING OIL</t>
   </si>
   <si>
     <t>DẦU GIA CÔNG CẮT GỌT</t>
   </si>
   <si>
+    <t>MCO Engine Oil = Motor oil</t>
+  </si>
+  <si>
     <t>CYLINDER KNITTING OIL</t>
   </si>
   <si>
     <t>DẦU XILANH ĐAN</t>
   </si>
   <si>
+    <t>PCMO engine oil</t>
+  </si>
+  <si>
     <t>CHAIN OIL</t>
   </si>
   <si>
     <t>DẦU BÔI TRƠN XÍCH TẢI</t>
   </si>
   <si>
+    <t>truck diesel heavy duty = HDEO  engine oil</t>
+  </si>
+  <si>
     <t>CHEMICAL</t>
   </si>
   <si>
@@ -193,6 +253,9 @@
     <t>DẦU ĐỘNG CƠ DIESEL</t>
   </si>
   <si>
+    <t>HDEO</t>
+  </si>
+  <si>
     <t>DRAWING OIL</t>
   </si>
   <si>
@@ -235,6 +298,9 @@
     <t>DẦU ĐỘNG CƠ/ NHỚT ĐỘNG CƠ</t>
   </si>
   <si>
+    <t>PCMO</t>
+  </si>
+  <si>
     <t>FOAMASTER</t>
   </si>
   <si>
@@ -301,6 +367,9 @@
     <t>DẦU ĐỘNG CƠ CÔNG NGHIỆP</t>
   </si>
   <si>
+    <t>INDUSTRIAL GEAR OIL</t>
+  </si>
+  <si>
     <t>DẦU BÁNH RĂNG CÔNG NGHIỆP</t>
   </si>
   <si>
@@ -322,10 +391,10 @@
     <t>DẦU CHỐNG GỈ</t>
   </si>
   <si>
-    <t>INDUSTRIAL OIL (SOLVENT)</t>
-  </si>
-  <si>
-    <t>DẦU CÔNG NGHIỆP (SOLVENT)</t>
+    <t>SOLVENT</t>
+  </si>
+  <si>
+    <t>DUNG MÔI</t>
   </si>
   <si>
     <t>INDUSTRIAL OIL (UNSPECIFY)</t>
@@ -340,12 +409,18 @@
     <t>PARAFFIN CÔNG NGHIỆP</t>
   </si>
   <si>
+    <t>Process Oil</t>
+  </si>
+  <si>
     <t>INHIBITED ELECTRICAL/TRANSFORMER INSULTATING OILS</t>
   </si>
   <si>
     <t>DẦU CÁCH ĐIỆN/ MÁY BIẾN ÁP ỨC CHẾ</t>
   </si>
   <si>
+    <t>Electrial Oil</t>
+  </si>
+  <si>
     <t>JET ENGINE GREASE</t>
   </si>
   <si>
@@ -364,6 +439,9 @@
     <t>DẦU TURBINE PHẢN LỰC</t>
   </si>
   <si>
+    <t>Turbine oil</t>
+  </si>
+  <si>
     <t>KEROSENSE</t>
   </si>
   <si>
@@ -412,6 +490,9 @@
     <t>DẦU ĐỘNG CƠ XE MÁY</t>
   </si>
   <si>
+    <t>MCO</t>
+  </si>
+  <si>
     <t>MOULD RELEASE OIL</t>
   </si>
   <si>
@@ -460,10 +541,7 @@
     <t>DẦU MÁY PHÁT ĐIỆN</t>
   </si>
   <si>
-    <t>POWER ENGINE OILS</t>
-  </si>
-  <si>
-    <t>ĐỘNG CƠ PHÁT ĐIỆN</t>
+    <t>Power engine oil</t>
   </si>
   <si>
     <t>PRESSING OIL</t>
@@ -553,9 +631,6 @@
     <t>DẦU BÔI TRƠN TUA BIN &amp; TUẦN HOÀN</t>
   </si>
   <si>
-    <t>b2b</t>
-  </si>
-  <si>
     <t>TURBINE OIL</t>
   </si>
   <si>
@@ -568,6 +643,9 @@
     <t>DẦU TRUYỀN ĐỘNG</t>
   </si>
   <si>
+    <t>Transmission Fluid</t>
+  </si>
+  <si>
     <t>UV OIL</t>
   </si>
   <si>
@@ -596,97 +674,13 @@
   </si>
   <si>
     <t>BỘ BÔI TRƠN DÂY CÁP</t>
-  </si>
-  <si>
-    <t>Heavy Duty Engine oil</t>
-  </si>
-  <si>
-    <t>Transmission Fluid + Auto Transmission</t>
-  </si>
-  <si>
-    <t>Hydraulic Oil</t>
-  </si>
-  <si>
-    <t>Gear Oil</t>
-  </si>
-  <si>
-    <t>Grease</t>
-  </si>
-  <si>
-    <t>Compressor</t>
-  </si>
-  <si>
-    <t>Slideway</t>
-  </si>
-  <si>
-    <t>Bearing and Cirticulating oil</t>
-  </si>
-  <si>
-    <t>Turbine oil/ Power engine oil</t>
-  </si>
-  <si>
-    <t>Power engine oil (có thể cho vào Turbine oil/ Power engine oil)</t>
-  </si>
-  <si>
-    <t>Electrial Oil (dầu cách điện)</t>
-  </si>
-  <si>
-    <t>truck diesel heavy duty = HDEO  engine oil</t>
-  </si>
-  <si>
-    <t>OIL APPLICATION BY CLIENT</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL GEAR OIL</t>
-  </si>
-  <si>
-    <t>Transmission Fluid</t>
-  </si>
-  <si>
-    <t>Auto Transmission Fluid</t>
-  </si>
-  <si>
-    <t>Metalworking Fluid</t>
-  </si>
-  <si>
-    <t>Turbine oil</t>
-  </si>
-  <si>
-    <t>Electrial Oil</t>
-  </si>
-  <si>
-    <t>Process Oil</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>Base Oil</t>
-  </si>
-  <si>
-    <t>HDEO</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Compressor Oil</t>
-  </si>
-  <si>
-    <t>Power engine oil</t>
-  </si>
-  <si>
-    <t>MCO Engine Oil = Motor oil</t>
-  </si>
-  <si>
-    <t>PCMO engine oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,11 +700,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Docs-Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -770,11 +759,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -782,33 +772,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Good 2" xfId="2" xr:uid="{198A03C7-08D5-4ABA-A3AB-DE6CD2709444}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -822,10 +806,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,23 +1106,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1154,1600 +1135,1583 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
+      <c r="E10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
+      <c r="E13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1">
-      <c r="A22" s="4" t="s">
-        <v>47</v>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
+      <c r="E22" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>14</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
+      <c r="E23" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
+      <c r="E24" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
+      <c r="E25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>17</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1">
+      <c r="E26" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>18</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="2" t="s">
-        <v>59</v>
+      <c r="E27" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>19</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
+      <c r="E29" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>21</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" hidden="1">
+      <c r="E30" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>22</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1">
-      <c r="A32" s="2" t="s">
-        <v>67</v>
+      <c r="E31" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>23</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1">
-      <c r="A33" s="2" t="s">
-        <v>69</v>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>24</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1">
-      <c r="A34" s="2" t="s">
-        <v>71</v>
+      <c r="E33" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>25</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1">
-      <c r="A35" s="2" t="s">
-        <v>73</v>
+      <c r="E34" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>26</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1">
-      <c r="A36" s="2" t="s">
-        <v>75</v>
+      <c r="E35" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1">
-      <c r="A37" s="2" t="s">
-        <v>77</v>
+      <c r="E36" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>28</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1">
-      <c r="A38" s="2" t="s">
-        <v>79</v>
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1">
-      <c r="A39" s="2" t="s">
-        <v>81</v>
+      <c r="E38" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>30</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1">
-      <c r="A40" s="2" t="s">
-        <v>83</v>
+      <c r="E39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>31</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1">
-      <c r="A41" s="2" t="s">
-        <v>85</v>
+      <c r="E40" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>32</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1">
-      <c r="A42" s="2" t="s">
-        <v>199</v>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>33</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1">
-      <c r="A43" s="2" t="s">
-        <v>88</v>
+      <c r="E42" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>34</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1">
-      <c r="A44" s="2" t="s">
-        <v>90</v>
+      <c r="E43" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1">
+      <c r="E44" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>36</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1">
-      <c r="A46" s="2" t="s">
-        <v>94</v>
+      <c r="E45" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>37</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1">
-      <c r="A47" s="2" t="s">
-        <v>96</v>
+      <c r="E46" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>38</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1">
-      <c r="A48" s="2" t="s">
-        <v>98</v>
+      <c r="E47" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>39</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1">
-      <c r="A49" s="7" t="s">
-        <v>100</v>
+      <c r="E48" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>40</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1">
+      <c r="E49" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>90</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1">
-      <c r="A51" s="2" t="s">
-        <v>104</v>
+      <c r="E50" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>91</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1">
-      <c r="A52" s="2" t="s">
-        <v>106</v>
+      <c r="E51" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>92</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" hidden="1">
+      <c r="E52" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>93</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1">
-      <c r="A54" s="2" t="s">
-        <v>110</v>
+      <c r="E53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>94</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1">
-      <c r="A55" s="2" t="s">
-        <v>112</v>
+      <c r="E54" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>95</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1">
-      <c r="A56" s="7" t="s">
-        <v>114</v>
+      <c r="E55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>96</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1">
-      <c r="A57" s="7" t="s">
-        <v>116</v>
+      <c r="E56" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>97</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1">
-      <c r="A58" s="2" t="s">
-        <v>118</v>
+      <c r="E57" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>98</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1">
-      <c r="A59" s="2" t="s">
-        <v>120</v>
+      <c r="E58" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>99</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1">
-      <c r="A60" s="2" t="s">
-        <v>122</v>
+      <c r="E59" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D60">
         <v>100</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1">
+      <c r="E60" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>101</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1">
-      <c r="A62" s="2" t="s">
-        <v>126</v>
+      <c r="E61" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D62">
         <v>102</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1">
-      <c r="A63" s="2" t="s">
-        <v>128</v>
+      <c r="E62" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>103</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1">
-      <c r="A64" s="2" t="s">
-        <v>130</v>
+      <c r="E63" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>104</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1">
-      <c r="A65" s="2" t="s">
-        <v>132</v>
+      <c r="E64" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>105</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1">
-      <c r="A66" s="2" t="s">
-        <v>134</v>
+      <c r="E65" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D66">
         <v>106</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1">
-      <c r="A67" s="2" t="s">
-        <v>136</v>
+      <c r="E66" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <v>107</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1">
-      <c r="A68" s="2" t="s">
-        <v>138</v>
+      <c r="E67" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>108</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>110</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>111</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>112</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>113</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>114</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>115</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>116</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>117</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>118</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>119</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>120</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>121</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>122</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>123</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>124</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>125</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>126</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>127</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>128</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>129</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>130</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1">
-      <c r="A69" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69">
-        <v>109</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1">
-      <c r="A70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70">
-        <v>110</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1">
-      <c r="A71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71">
-        <v>111</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1">
-      <c r="A72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72">
-        <v>112</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1">
-      <c r="A73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>113</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1">
-      <c r="A74" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74">
-        <v>114</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8" hidden="1">
-      <c r="A75" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <v>115</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1">
-      <c r="A76" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76">
-        <v>116</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1">
-      <c r="A77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77">
-        <v>117</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1">
-      <c r="A78" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78">
-        <v>118</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1">
-      <c r="A79" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>119</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1">
-      <c r="A80" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80">
-        <v>120</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1">
-      <c r="A81" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81">
-        <v>121</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1">
-      <c r="A82" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82">
-        <v>122</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1">
-      <c r="A83" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83">
-        <v>123</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1">
-      <c r="A84" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84">
-        <v>124</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1">
-      <c r="A85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85">
-        <v>125</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1">
-      <c r="A86" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86">
-        <v>126</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1">
-      <c r="A87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87">
-        <v>127</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1">
-      <c r="A88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88">
-        <v>128</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1">
-      <c r="A89" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89">
-        <v>129</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1">
-      <c r="A90" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>130</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1">
-      <c r="A91" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91">
         <v>131</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1">
-      <c r="A92" s="12"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="E90" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="11"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J92" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
+  <autoFilter ref="A1:G90" xr:uid="{30F3E4C0-0D7F-43B5-8705-CF1B502B0A6B}">
     <filterColumn colId="1">
       <filters>
-        <filter val="DẦU GỐC/ DẦU NỀN"/>
+        <filter val="DẦU CÁCH ĐIỆN/ MÁY BIẾN ÁP ỨC CHẾ"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D93">
-    <sortCondition ref="A2:A93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D92">
+    <sortCondition ref="A2:A92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
